--- a/BalanceSheet/ACGL_bal.xlsx
+++ b/BalanceSheet/ACGL_bal.xlsx
@@ -3848,7 +3848,7 @@
         <v>1635716000.0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1779770000.0</v>
+        <v>2105628000.0</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>2088392000.0</v>
@@ -3972,7 +3972,7 @@
         <v>2518000000.0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>2506000000.0</v>
+        <v>2831858000.0</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>2968491000.0</v>
